--- a/CashFlow/MLM_cashflow.xlsx
+++ b/CashFlow/MLM_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2838000000.0</v>
+        <v>-19300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2087727000.0</v>
+        <v>668400000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1370627000.0</v>
+        <v>667200000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>656927000.0</v>
+        <v>678600000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-27673000.0</v>
+        <v>704600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-385000.0</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-34000000.0</v>
+        <v>818000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-40797000.0</v>
+        <v>840000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
